--- a/sample_submission.xlsx
+++ b/sample_submission.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
         <v>46000</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>46000</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +506,7 @@
         <v>45500</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +528,7 @@
         <v>44000</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -550,7 +550,7 @@
         <v>42000</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         <v>41000</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +594,7 @@
         <v>40000</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -616,7 +616,7 @@
         <v>41700</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -638,7 +638,7 @@
         <v>42500</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +660,7 @@
         <v>42700</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -682,7 +682,7 @@
         <v>42800</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -704,7 +704,7 @@
         <v>44500</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -726,7 +726,7 @@
         <v>46000</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -748,7 +748,7 @@
         <v>53700</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
